--- a/rice_sagawa_template.xlsx
+++ b/rice_sagawa_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\git\02_rice_club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F9B28C-A02E-41B3-8327-9FB719221013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6864C16C-95B6-48CF-AFA9-F1633AD56EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="4065" windowWidth="23580" windowHeight="5670" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="佐川" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">リスト!$A$1:$H$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">リスト!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -280,6 +280,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +401,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -935,11 +953,11 @@
   <cols>
     <col min="1" max="2" width="5.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="9" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="50.875" style="11" customWidth="1"/>
     <col min="9" max="16384" width="13.125" style="1"/>
   </cols>
   <sheetData>
@@ -959,7 +977,7 @@
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G3" s="3" t="s">
